--- a/ressources/calculCaptTemp.xlsx
+++ b/ressources/calculCaptTemp.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://educlgqc-my.sharepoint.com/personal/201770397_edu_clg_qc_ca/Documents/Projet-Final_1/doc_projet/ressources/outils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\clg\Projet-Final\code\MOTRIK_capt-temperature\ressources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2038F10D-F3F6-4D59-A657-7629FB3CC067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FB4090B3-7ED5-4BA8-9FE7-2A9DF6A034A5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD1081-D5D6-4FBA-82D6-404399A73C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E244A9E-8CDC-43CC-8CF7-4099A6C94DF6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calcul DE Temp. Max." sheetId="3" r:id="rId1"/>
+    <sheet name="Calcul DE Ampli." sheetId="1" r:id="rId2"/>
+    <sheet name="Calcul Range" sheetId="2" r:id="rId3"/>
+    <sheet name="Calibration" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +36,183 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thomas Desrosiers</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{0DB3DB6E-3640-41FF-8D8B-087A536404DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thomas Desrosiers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Selon la datesheet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{AA1DEC29-31B4-4DF2-BD61-6ED478A63C23}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thomas Desrosiers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En fonction de l'utilisation.
+Pour calculer utilisation plage échantillon.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thomas Desrosiers</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{F22457A5-DD31-4DFD-8E1A-CEF65F4BC7C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thomas Desrosiers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Selon la datesheet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{2526A2F0-2CD0-4789-AAE5-46DEA165F1B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thomas Desrosiers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En fonction de l'utilisation.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Thomas Desrosiers</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{F46DBC5E-7A51-4903-9DDE-6F23778E49C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thomas Desrosiers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Selon la datesheet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{0BE4726C-5DB9-4C5C-A60D-2FAE24BE0608}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thomas Desrosiers:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+En fonction de l'utilisation.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
   <si>
     <t>Temp. Min.</t>
   </si>
@@ -51,9 +229,6 @@
     <t>Résolution</t>
   </si>
   <si>
-    <t>Plage ADC</t>
-  </si>
-  <si>
     <t>Résolution ADC</t>
   </si>
   <si>
@@ -61,9 +236,6 @@
   </si>
   <si>
     <t>Utilisation plage échantillon</t>
-  </si>
-  <si>
-    <t>Amplification</t>
   </si>
   <si>
     <t>Nouvelle Résolution</t>
@@ -89,19 +261,75 @@
   <si>
     <t>Calcul des résistances Rf et Ri</t>
   </si>
+  <si>
+    <t>Plage Tension</t>
+  </si>
+  <si>
+    <t>Plage Tension ADC</t>
+  </si>
+  <si>
+    <t>Plage Température</t>
+  </si>
+  <si>
+    <t>Décalage Requis</t>
+  </si>
+  <si>
+    <t>Calcul ADC</t>
+  </si>
+  <si>
+    <t>Information MCU</t>
+  </si>
+  <si>
+    <t>Circuit d'amplification</t>
+  </si>
+  <si>
+    <t>Circuit de décalage</t>
+  </si>
+  <si>
+    <t>Conversion valeur  ADC vers °C</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>T offset</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T2 ADC</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T1 ADC</t>
+  </si>
+  <si>
+    <t>Valeur ADC Brut</t>
+  </si>
+  <si>
+    <t>Valeur Temp.</t>
+  </si>
+  <si>
+    <t>Diviseur ADC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.00&quot;mV/°C&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00&quot;°C&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00&quot;V&quot;"/>
     <numFmt numFmtId="167" formatCode="0&quot;bits&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00&quot;kΩ&quot;"/>
+    <numFmt numFmtId="169" formatCode=";;;"/>
+    <numFmt numFmtId="170" formatCode="0.000&quot;V&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +351,33 @@
       <color rgb="FF7030A0"/>
       <name val="MathJax_Math"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="MathJax_Math"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,8 +396,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -219,15 +478,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -236,28 +486,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -277,7 +505,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -294,30 +524,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -375,15 +581,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -415,11 +612,102 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -429,8 +717,115 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -441,171 +836,396 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,11 +1233,60 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7FFF7F"/>
+          <bgColor rgb="FFFF7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF7F7F"/>
         </patternFill>
       </fill>
     </dxf>
@@ -731,17 +1400,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Information Capteur</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -752,49 +1410,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$B$6</c:f>
-              <c:strCache>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcul DE Temp. Max.'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Plage Temp.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00"°C"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calcul DE Temp. Max.'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calcul DE Temp. Max.'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A95F-4B61-8E50-1544A14F98D5}"/>
+              <c16:uniqueId val="{00000000-8D50-4096-AFF7-1AC20A162F29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ajustement du circuit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -805,32 +1477,54 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Plage Temp.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$G$5</c:f>
+              <c:f>'Calcul DE Temp. Max.'!$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00"°C"</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calcul DE Temp. Max.'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calcul DE Temp. Max.'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A95F-4B61-8E50-1544A14F98D5}"/>
+              <c16:uniqueId val="{00000001-8D50-4096-AFF7-1AC20A162F29}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1028,7 +1722,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00&quot;°C&quot;" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1144,7 +1838,891 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>Plages</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" baseline="0"/>
+              <a:t> de température</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcul DE Ampli.'!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calcul DE Ampli.'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calcul DE Ampli.'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C54C-44D7-B5A8-1E24362F3F8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calcul DE Ampli.'!$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00"°C"</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calcul DE Ampli.'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Calcul DE Ampli.'!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C54C-44D7-B5A8-1E24362F3F8C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="494122703"/>
+        <c:axId val="494123951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="494122703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Profil du capteur</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494123951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494123951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Température °C</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494122703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>"T ADC"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Calibration!$B$6,Calibration!$B$8)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>T1 ADC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2 ADC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Calibration!$C$6,Calibration!$C$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00"°C"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A14C-4BC9-8FAD-DB4BCD0BF6BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>"T"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Calibration!$C$7,Calibration!$C$9)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00"°C"</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A14C-4BC9-8FAD-DB4BCD0BF6BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="139788127"/>
+        <c:axId val="139799775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="139788127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139799775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="139799775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00&quot;°C&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="139788127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1689,8 +3267,1029 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$G$3" max="20" min="1" page="10" val="5"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$F$7" max="20" min="1" page="10" val="4"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1717,7 +4316,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1735,26 +4336,26 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>7</xdr:col>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Spinner 1" hidden="1">
+            <xdr:cNvPr id="3073" name="Spinner 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
+                  <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1781,6 +4382,92 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2080,299 +4767,401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AC0520-D12A-495B-A1DC-F1DAA2BB1056}">
-  <dimension ref="B1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261590FB-39DA-4895-9B3E-8A7D443B4B53}">
+  <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="2.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="2.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="0.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="0.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.5703125" style="87" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="79" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="0.7109375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="1.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B2" s="47" t="s">
+    <row r="1" spans="2:8" ht="1.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B2" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="D2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="38">
+        <v>1024</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="39">
+        <v>5</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="120"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D5" s="80"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B6" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
-      <c r="F2" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="4" t="s">
+      <c r="C6" s="120"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="120"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C7" s="40">
         <v>10</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="20">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="5" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="9" t="str">
+        <f>"Amplification " &amp;C20&amp; "V -&gt; " &amp;C4&amp; "V"</f>
+        <v>Amplification 1V -&gt; 5V</v>
+      </c>
+      <c r="F7" s="89">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7">
-        <v>-40</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="21">
-        <f>C3*G3</f>
-        <v>50</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="5" t="s">
+      <c r="C8" s="41">
+        <v>0</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="75">
+        <f>C7*F7</f>
+        <v>40</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
-        <v>110</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="9">
-        <f>C14/(G4*10^-3)</f>
-        <v>100</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9">
-        <f>C5-C4</f>
+      <c r="C9" s="42">
         <v>150</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="F6" s="32" t="str">
-        <f>"Tension @ " &amp;ROUND(G5,2)&amp; "°C"</f>
-        <v>Tension @ 100°C</v>
-      </c>
-      <c r="G6" s="33">
-        <f>G5*(G4*10^-3)</f>
-        <v>5</v>
-      </c>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B7" s="13" t="str">
-        <f>"Tension @ " &amp;C4&amp; "°C"</f>
-        <v>Tension @ -40°C</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="D9" s="65"/>
+      <c r="E9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="46">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="43">
+        <f>ABS(C9)+ABS(C8)</f>
+        <v>150</v>
+      </c>
+      <c r="D10" s="65"/>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="46">
+        <f>IF((C4/(F8*10^-3))&lt;=C10,C4/(F8*10^-3),C10)</f>
+        <v>125</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B11" s="18" t="str">
+        <f>"Tension @ " &amp;C8&amp; "°C"</f>
+        <v>Tension @ 0°C</v>
+      </c>
+      <c r="C11" s="44">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="F7" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="35">
-        <f>G6/C14</f>
+      <c r="D11" s="50"/>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="46">
+        <f>F10+ABS(F9)</f>
+        <v>125</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="78" t="str">
+        <f>"Tension @ " &amp;C9&amp; "°C"</f>
+        <v>Tension @ 150°C</v>
+      </c>
+      <c r="C12" s="35">
+        <f>C10*(C7*10^-3)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="3" t="str">
+        <f>"Tension @ " &amp;F9&amp; "°C"</f>
+        <v>Tension @ 0°C</v>
+      </c>
+      <c r="F12" s="47">
+        <f>C11</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B13" s="58"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="3" t="str">
+        <f>"Tension @ " &amp;ROUND(F10,2)&amp; "°C"</f>
+        <v>Tension @ 125°C</v>
+      </c>
+      <c r="F13" s="47">
+        <f>F10*(F8*10^-3)</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B14" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="120"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="47">
+        <f>F13-F12</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="88">
+        <v>0</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="91">
+        <f>F14/C4</f>
         <v>1</v>
       </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="2:9" s="15" customFormat="1" ht="3.75" customHeight="1" thickBot="1">
-      <c r="B8" s="50" t="str">
-        <f>"Tension @ " &amp;C6&amp; "°C"</f>
-        <v>Tension @ 150°C</v>
-      </c>
-      <c r="C8" s="52">
-        <f>C6*(C3*10^-3)</f>
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="2:9" ht="12" customHeight="1" thickBot="1">
-      <c r="B9" s="51"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="55"/>
-      <c r="F9" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="2:9" ht="3.75" customHeight="1" thickBot="1">
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B11" s="47" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="42">
+        <v>100</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="46">
+        <f>ABS(C16)+ABS(C15)</f>
+        <v>100</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="118"/>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B18" s="3" t="str">
+        <f>"Tension @ " &amp;C15&amp; "°C"</f>
+        <v>Tension @ 0°C</v>
+      </c>
+      <c r="C18" s="47">
+        <f>ABS( (ABS(C15)-ABS(C8)))*(C7*10^-3)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="36">
+        <f>F7-1</f>
         <v>3</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="F11" s="29" t="s">
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B19" s="3" t="str">
+        <f>"Tension @ " &amp;ROUND(C16,2)&amp; "°C"</f>
+        <v>Tension @ 100°C</v>
+      </c>
+      <c r="C19" s="34">
+        <f>(C16+ABS(C8))*(C7*10^-3)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="23">
-        <f>G3-1</f>
-        <v>4</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="F12" s="30" t="s">
+      <c r="C20" s="34">
+        <f>C19-C18</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B21" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="91">
+        <f>C19/C4</f>
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="25">
-        <v>4</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
-        <f>G5</f>
-        <v>100</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="F13" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="25">
-        <v>1</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B14" s="5" t="s">
+      <c r="F21" s="37">
+        <f>(F19/F20)+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B22" s="54"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D23" s="6"/>
+      <c r="E23" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="118"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1">
+      <c r="E24" s="73" t="str">
+        <f>"Tension @ " &amp;ROUND(F10,2)&amp; "°C"</f>
+        <v>Tension @ 125°C</v>
+      </c>
+      <c r="F24" s="44">
+        <f>F10*(F8*10^-3)</f>
         <v>5</v>
       </c>
-      <c r="C14" s="14">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="F14" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="27">
-        <f>(G12/G13)+1</f>
-        <v>5</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="38">
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1">
+      <c r="E25" s="72" t="str">
+        <f>"Valeur lue par l'ADC ( " &amp;C3&amp; "bits )"</f>
+        <v>Valeur lue par l'ADC ( 1024bits )</v>
+      </c>
+      <c r="F25" s="82">
+        <f>(F24/C4)*C3</f>
         <v>1024</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="2:9" ht="29.25" thickBot="1">
-      <c r="B16" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="35">
-        <f>C8/C14</f>
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="6:9">
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="6:9">
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="6:9">
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="6:9">
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="6:9">
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="6:9">
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="6:9">
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="6:9">
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E26" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="84">
+        <f>ROUND(F25/F10,2)</f>
+        <v>8.19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F9:H10"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
-  <conditionalFormatting sqref="G14:H14">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$G$14&lt;&gt;$G$6</formula>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$F$21&lt;&gt;$F$7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>"$G$14=$G$3"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$C$16&lt;$C$8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$C$16&gt;$C$9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2384,19 +5173,19 @@
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId4" name="Spinner 1">
+            <control shapeId="3073" r:id="rId4" name="Spinner 1">
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>7</xdr:col>
+                    <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>3</xdr:row>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>7</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2408,4 +5197,1075 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AC0520-D12A-495B-A1DC-F1DAA2BB1056}">
+  <dimension ref="B1:I48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="0.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="0.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="79" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="0.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="1.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B2" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="G2" s="61"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="38">
+        <v>1024</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="I3" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="39">
+        <v>5</v>
+      </c>
+      <c r="E4" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="120"/>
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B6" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="120"/>
+      <c r="E6" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="120"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="40">
+        <v>10</v>
+      </c>
+      <c r="E7" s="74" t="str">
+        <f>"Amplification " &amp;C20&amp; "V -&gt; " &amp;F18&amp; "V"</f>
+        <v>Amplification 1V -&gt; 5V</v>
+      </c>
+      <c r="F7" s="85">
+        <f>ROUND(C4/C20,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="41">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="75">
+        <f>C7*F7</f>
+        <v>50</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="42">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="46">
+        <f>C4/(F8*10^-3)</f>
+        <v>100</v>
+      </c>
+      <c r="G9" s="66"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="43">
+        <f>ABS(C9)+ABS(C8)</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f>"Tension @ " &amp;C15&amp; "°C"</f>
+        <v>Tension @ 0°C</v>
+      </c>
+      <c r="F10" s="47">
+        <f>C15*(F8*10^-3)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="66"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B11" s="18" t="str">
+        <f>"Tension @ " &amp;C8&amp; "°C"</f>
+        <v>Tension @ 0°C</v>
+      </c>
+      <c r="C11" s="44">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26" t="str">
+        <f>"Tension @ " &amp;C16&amp; "°C"</f>
+        <v>Tension @ 100°C</v>
+      </c>
+      <c r="F11" s="76">
+        <f>C16*(F8*10^-3)</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="78" t="str">
+        <f>"Tension @ " &amp;C9&amp; "°C"</f>
+        <v>Tension @ 100°C</v>
+      </c>
+      <c r="C12" s="35">
+        <f>ABS(ABS(C9)+ABS(C8))*(C7*10^-3)</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="91">
+        <f>F11/C4</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B13" s="58"/>
+      <c r="C13" s="50"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B14" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="120"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="118"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="88">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="36">
+        <f>ROUND(F7-1,2)</f>
+        <v>4</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="42">
+        <v>100</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="32">
+        <v>20</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="46">
+        <f>C16-C15</f>
+        <v>100</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="32">
+        <v>5</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B18" s="3" t="str">
+        <f>"Tension @ " &amp;C15&amp; "°C"</f>
+        <v>Tension @ 0°C</v>
+      </c>
+      <c r="C18" s="47">
+        <f>ABS(ABS(C15)-ABS(C8))*(C7*10^-3)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="37">
+        <f>ROUND((F16/F17)+1,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B19" s="3" t="str">
+        <f>"Tension @ " &amp;C16&amp; "°C"</f>
+        <v>Tension @ 100°C</v>
+      </c>
+      <c r="C19" s="34">
+        <f>ABS(ABS(C16)+ABS(C8))*(C7*10^-3)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="34">
+        <f>C19-C18</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="97"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="91">
+        <f>C19/C4</f>
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="73" t="str">
+        <f>"Tension @ " &amp;ROUND(C16,2)&amp; "°C"</f>
+        <v>Tension @ 100°C</v>
+      </c>
+      <c r="F21" s="44">
+        <f>C16*(F8*10^-3)</f>
+        <v>5</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B22" s="15"/>
+      <c r="C22" s="69"/>
+      <c r="E22" s="72" t="str">
+        <f>"Valeur lue par l'ADC ( " &amp;B25&amp; "bits )"</f>
+        <v>Valeur lue par l'ADC ( bits )</v>
+      </c>
+      <c r="F22" s="82">
+        <f>(F21/C4)*C3</f>
+        <v>1024</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E23" s="86" t="str">
+        <f>"Conversion Valeur " &amp;C3&amp; " vers °C"</f>
+        <v>Conversion Valeur 1024 vers °C</v>
+      </c>
+      <c r="F23" s="84">
+        <f>F22/C16</f>
+        <v>10.24</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" customHeight="1">
+      <c r="G24" s="8"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" customHeight="1">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B26" s="27"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B27" s="27"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B28" s="6"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B29" s="61"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B30" s="27"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B31" s="27"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:8" ht="15.75" customHeight="1">
+      <c r="B32" s="27"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B33" s="27"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B34" s="29"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B35" s="58"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B36" s="58"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B37" s="6"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B38" s="61"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B39" s="27"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B40" s="27"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B41" s="27"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B42" s="29"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B43" s="29"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B44" s="27"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B45" s="60"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B46" s="60"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B47" s="6"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B48" s="6"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$F$18&lt;&gt;$F$7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$C$16&lt;$C$8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$C$16&gt;$C$9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE683F57-A307-4192-A564-DE3293FB986F}">
+  <dimension ref="B1:L28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="0.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="0.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="79" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="79" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="1.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B2" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="120"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B3" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="38">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="39">
+        <v>5</v>
+      </c>
+      <c r="E4" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="120"/>
+      <c r="H4" s="119" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="120"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B6" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="120"/>
+      <c r="E6" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="120"/>
+      <c r="H6" s="119" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="120"/>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="40">
+        <v>10</v>
+      </c>
+      <c r="E7" s="20" t="str">
+        <f>"Amplification " &amp;C21&amp; "V -&gt; " &amp;F18&amp; "V"</f>
+        <v>Amplification 0,4V -&gt; 5V</v>
+      </c>
+      <c r="F7" s="52">
+        <f>C4/C21</f>
+        <v>12.5</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="51">
+        <f>$C$4-$F$11</f>
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="41">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="53">
+        <f>C7*F7</f>
+        <v>125</v>
+      </c>
+      <c r="H8" s="104" t="str">
+        <f>"Tension @ " &amp;$C$16&amp; "°C"</f>
+        <v>Tension @ 60°C</v>
+      </c>
+      <c r="I8" s="105">
+        <f>$F$10+$I$7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="42">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="33">
+        <f>C4/(F8*10^-3)</f>
+        <v>40</v>
+      </c>
+      <c r="H9" s="102" t="str">
+        <f>"Tension @ " &amp;$C$17&amp; "°C"</f>
+        <v>Tension @ 100°C</v>
+      </c>
+      <c r="I9" s="106">
+        <f>$F$11+$I$7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="43">
+        <f>ABS(C9)+ABS(C8)</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f>"Tension @ " &amp;$C$16&amp; "°C"</f>
+        <v>Tension @ 60°C</v>
+      </c>
+      <c r="F10" s="34">
+        <f>$C$19*$F$7</f>
+        <v>7.5</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="49"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B11" s="18" t="str">
+        <f>"Tension @ " &amp;C8&amp; "°C"</f>
+        <v>Tension @ 0°C</v>
+      </c>
+      <c r="C11" s="44">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26" t="str">
+        <f>"Tension @ " &amp;$C$17&amp; "°C"</f>
+        <v>Tension @ 100°C</v>
+      </c>
+      <c r="F11" s="35">
+        <f>$C$20*$F$7</f>
+        <v>12.5</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="50"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="121" t="str">
+        <f>"Tension @ " &amp;C9&amp; "°C"</f>
+        <v>Tension @ 100°C</v>
+      </c>
+      <c r="C12" s="123">
+        <f>ABS(ABS(C9)+ABS(C8))*(C7*10^-3)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B13" s="122"/>
+      <c r="C13" s="124"/>
+      <c r="E13" s="129" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="130"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="125" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="126"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B15" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="120"/>
+      <c r="E15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="36">
+        <f>F7-1</f>
+        <v>11.5</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="99"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="45">
+        <v>60</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="32">
+        <v>4</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="42">
+        <v>100</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="46">
+        <f>C17-C16</f>
+        <v>40</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="37">
+        <f>(F16/F17)+1</f>
+        <v>5</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="103">
+        <f>(I16/I17)+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B19" s="3" t="str">
+        <f>"Tension @ " &amp;$C$16&amp; "°C"</f>
+        <v>Tension @ 60°C</v>
+      </c>
+      <c r="C19" s="96">
+        <f>C16*($C$7*10^-3)</f>
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B20" s="3" t="str">
+        <f>"Tension @ " &amp;$C$17&amp; "°C"</f>
+        <v>Tension @ 100°C</v>
+      </c>
+      <c r="C20" s="95">
+        <f>C17*($C$7*10^-3)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="95">
+        <f>C20-C19</f>
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="48">
+        <f>C20/C4</f>
+        <v>0.2</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B23" s="15"/>
+      <c r="C23" s="69"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" ht="15.75" customHeight="1">
+      <c r="I24" s="80"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" customHeight="1">
+      <c r="I25" s="80"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" customHeight="1">
+      <c r="I26" s="80"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" ht="15.75" customHeight="1">
+      <c r="I27" s="80"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" customHeight="1">
+      <c r="I28" s="80"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>$F$18&lt;&gt;$F$10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C17">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C16&gt;$C$9</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$C16&lt;$C$8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B3BAF8-5820-4B37-B03E-100C80EDEA9E}">
+  <dimension ref="B1:C12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="1.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B2" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="111">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B3" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="112">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B4" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="113">
+        <f>C2/C3</f>
+        <v>28.909774436090224</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="3.75" customHeight="1" thickBot="1">
+      <c r="C5" s="107"/>
+    </row>
+    <row r="6" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B6" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="114">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B7" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="112">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B8" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="112">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="115">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="3.75" customHeight="1" thickBot="1">
+      <c r="C10" s="107"/>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B11" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="116">
+        <f>((((C8-C6)/(C9-C7))*(C7*-1))+C6)</f>
+        <v>23.966176470588234</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="113">
+        <f>C9/(C8-C11)</f>
+        <v>9.0666666666666682</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>